--- a/release-notes/2024-05/closed-bugs-sle-2024-05.xlsx
+++ b/release-notes/2024-05/closed-bugs-sle-2024-05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ieiakabc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markblack/repos/github/install-systemlink-enterprise/release-notes/2024-05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9BD799-A984-48D9-8A1C-222A5C9F9288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB5F642-4FE0-AC46-84CF-4A7F375CE4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="6840" windowWidth="28580" windowHeight="18520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="closed bugs in last iteration" sheetId="1" r:id="rId1"/>
@@ -50,33 +50,21 @@
     <t>Closed</t>
   </si>
   <si>
-    <t>Add possibility to add asset type as column in the asset grid</t>
-  </si>
-  <si>
     <t>Change edit asset slideout confirmation button text from Update to Save</t>
   </si>
   <si>
-    <t>The edit button is shown for users that don't have modify privileges</t>
-  </si>
-  <si>
     <t>Opening the link from Products grid using 'Open link with the new tab' is not working as expected</t>
   </si>
   <si>
     <t>The list of products in Test Insights don't update immediately when you change views</t>
   </si>
   <si>
-    <t>Selection toolbar not getting updated when we exclude all points</t>
-  </si>
-  <si>
     <t>The links in action details of test plans are not visible in dark mode</t>
   </si>
   <si>
     <t>Test plan with "Item not found" Product does not show error when editing a test plan</t>
   </si>
   <si>
-    <t>Work Order FE | Slowness in opening `Create test plan` slideouts</t>
-  </si>
-  <si>
     <t>DataSpace - Graph is not plotted when query is changed and reverted back</t>
   </si>
   <si>
@@ -86,28 +74,40 @@
     <t>Plot legends in Data Spaces are hard to read</t>
   </si>
   <si>
-    <t xml:space="preserve">Plot type is not maintained on switching between dataSources </t>
-  </si>
-  <si>
-    <t>Data Space when querying large step sizes can outpace default webserver memory limits</t>
-  </si>
-  <si>
-    <t>Edit Product Details Slide out | Scroll bar is appearing while trying to add new properties</t>
-  </si>
-  <si>
     <t>Glitch when opening software install dialog with a saved view</t>
   </si>
   <si>
     <t>Additional `Extract `Buttons in the Files-grid within Products grid</t>
   </si>
   <si>
-    <t>Feed duplication not fully localized</t>
-  </si>
-  <si>
     <t>The userservices-continuation-token required secret is not included in the ni.com documentation</t>
   </si>
   <si>
-    <t>Changing an assets serial number from null to empty string generates warnings on the minion side</t>
+    <t>Changing an assets serial number from null to empty string generates warnings on the connected test system</t>
+  </si>
+  <si>
+    <t>Add option to add asset type as column in the asset grid</t>
+  </si>
+  <si>
+    <t>The Asset edit button is shown for users that don't have modify privileges</t>
+  </si>
+  <si>
+    <t>Feed duplication workflows not fully localized</t>
+  </si>
+  <si>
+    <t>The Data Space selection toolbar is not updated when the user excludes all points</t>
+  </si>
+  <si>
+    <t>`Create test plan` slideouts opens slower than expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Space Plot type is not maintained on switching between dataSources </t>
+  </si>
+  <si>
+    <t>Data Space when querying large step sizes can exceed default webserver memory limits</t>
+  </si>
+  <si>
+    <t>Edit Product Details Slide out | Scroll bar appears while trying to add new properties</t>
   </si>
 </sst>
 </file>
@@ -957,16 +957,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="87.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -977,221 +977,221 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2687361</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2706477</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2706540</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2706546</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2718939</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2710694</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2667192</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2701743</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2712900</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2704990</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2701397</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2650361</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2702672</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2688788</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2691961</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2699371</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2700147</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2720560</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2716052</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2700652</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -1206,6 +1206,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8f35f8fb-94b8-4296-88b5-253c68a5f93d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC68938C25E75A48B38E3943F7278D4C" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f386436e95be0043924bcf0cd6e2e3e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9" xmlns:ns3="8f35f8fb-94b8-4296-88b5-253c68a5f93d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5eec6196c8d92b4beb5d11b9b1aa531" ns2:_="" ns3:_="">
     <xsd:import namespace="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9"/>
@@ -1454,17 +1465,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="8f35f8fb-94b8-4296-88b5-253c68a5f93d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1475,6 +1475,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E6B2099-BF96-40FC-B6D0-611F0B5B8DEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9"/>
+    <ds:schemaRef ds:uri="8f35f8fb-94b8-4296-88b5-253c68a5f93d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69CD8DA2-193C-44CF-BA17-F8ECBA32973C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1493,17 +1504,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E6B2099-BF96-40FC-B6D0-611F0B5B8DEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9"/>
-    <ds:schemaRef ds:uri="8f35f8fb-94b8-4296-88b5-253c68a5f93d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F5BA7BF-C649-45A8-BA98-72C6A48D6AFB}">
   <ds:schemaRefs>
